--- a/Passwords.xlsx
+++ b/Passwords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>SikhsinINDIA@gmail.com</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>+971 52 802 1108</t>
+  </si>
+  <si>
+    <t>sikhsinIndia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.emailjs.com/</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -412,10 +418,25 @@
         <v>3816</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Passwords.xlsx
+++ b/Passwords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>SikhsinINDIA@gmail.com</t>
   </si>
@@ -37,13 +37,19 @@
   </si>
   <si>
     <t>https://www.emailjs.com/</t>
+  </si>
+  <si>
+    <t>Add styles to show the page and buttons in strictly two colors - yellow/orange (kesari) FF9933 and black color</t>
+  </si>
+  <si>
+    <t>Convert html file to have look and feel in  Add styles to show the page and buttons in strictly two colors - yellow/orange (kesari) FF9933 and black color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +62,18 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -83,10 +101,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -382,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,6 +451,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="2:5" ht="17.25">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -439,6 +469,7 @@
     <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Passwords.xlsx
+++ b/Passwords.xlsx
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +62,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -101,11 +95,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -405,7 +398,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,8 +449,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15.75">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:5" ht="17.25">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
